--- a/client/public/SourceTables.xlsx
+++ b/client/public/SourceTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niraj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-mapster\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A723A-586B-42EC-BF4D-C22DEF40357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE5FB60-A880-456C-82B3-8C0EF0A43346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{804BB64F-F945-4B65-AAE9-74C192895A04}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{804BB64F-F945-4B65-AAE9-74C192895A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>TableName</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>IsNullAllowed</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338640AF-6DBD-4A2D-8BFC-D9F16AFAE900}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,9 +493,10 @@
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +515,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -525,8 +535,11 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -542,8 +555,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -562,8 +578,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -579,8 +598,11 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -596,8 +618,11 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -610,8 +635,11 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -627,8 +655,11 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -644,8 +675,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -658,8 +692,11 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -675,8 +712,11 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -692,8 +732,11 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -705,6 +748,9 @@
       </c>
       <c r="E13" t="s">
         <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
